--- a/data/league_data/spain/19/spain_shooting.xlsx
+++ b/data/league_data/spain/19/spain_shooting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A544EA-C02D-344E-A856-98CD03BED8D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280016B5-AE88-A84A-A4DC-CAD6A3A23B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="590">
   <si>
     <t>Rk</t>
   </si>
@@ -1784,12 +1784,18 @@
   </si>
   <si>
     <t>Toni Moya</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2647,14 +2653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2682,7 +2688,7 @@
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3489,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4239,7 +4245,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4547,7 +4553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4912,7 +4918,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5066,7 +5072,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5508,7 +5514,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5739,7 +5745,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5816,7 +5822,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5893,7 +5899,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5970,7 +5976,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6037,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6343,7 +6349,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6420,7 +6426,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6651,7 +6657,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6805,7 +6811,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6882,7 +6888,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6949,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7026,7 +7032,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7103,7 +7109,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7257,7 +7263,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7642,7 +7648,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7796,7 +7802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7948,7 +7954,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8025,7 +8031,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8102,7 +8108,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8256,7 +8262,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8410,7 +8416,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8641,7 +8647,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8718,7 +8724,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8795,7 +8801,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8949,7 +8955,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9026,7 +9032,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9257,7 +9263,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9411,7 +9417,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9565,7 +9571,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9642,7 +9648,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9719,7 +9725,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9873,7 +9879,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9950,7 +9956,7 @@
         <v>-4.7</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10181,7 +10187,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10258,7 +10264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10335,7 +10341,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10410,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10564,7 +10570,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10716,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10870,7 +10876,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10937,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11014,7 +11020,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11168,7 +11174,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11245,7 +11251,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11322,7 +11328,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11399,12 +11405,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>191</v>
+        <v>589</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>26</v>
@@ -11476,7 +11482,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11553,7 +11559,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11630,7 +11636,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11707,7 +11713,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11784,7 +11790,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11861,7 +11867,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11938,7 +11944,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12015,7 +12021,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12092,7 +12098,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12169,7 +12175,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12246,7 +12252,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12400,7 +12406,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12477,7 +12483,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12554,7 +12560,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12631,7 +12637,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12708,7 +12714,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12775,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12852,7 +12858,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12929,7 +12935,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -13006,7 +13012,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13083,7 +13089,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13237,7 +13243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13304,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13381,7 +13387,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13458,7 +13464,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13535,7 +13541,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13612,7 +13618,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13689,7 +13695,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13766,7 +13772,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13843,7 +13849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13920,7 +13926,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13997,7 +14003,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14074,7 +14080,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14151,7 +14157,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14228,7 +14234,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14305,7 +14311,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14382,7 +14388,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14459,7 +14465,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14613,7 +14619,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14688,7 +14694,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14765,7 +14771,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14842,7 +14848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14919,7 +14925,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14996,7 +15002,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -15073,7 +15079,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -15150,7 +15156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -15227,7 +15233,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -15304,7 +15310,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15381,7 +15387,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15458,7 +15464,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15535,7 +15541,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15612,7 +15618,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15689,7 +15695,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15766,7 +15772,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15843,7 +15849,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15920,7 +15926,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15997,7 +16003,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -16074,7 +16080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -16151,7 +16157,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -16228,7 +16234,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -16305,7 +16311,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -16382,7 +16388,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16459,7 +16465,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16526,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16603,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16670,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16747,7 +16753,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16824,7 +16830,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16901,7 +16907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16978,7 +16984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -17055,7 +17061,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -17132,7 +17138,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -17209,7 +17215,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -17286,7 +17292,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -17363,7 +17369,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -17440,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17517,7 +17523,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17594,7 +17600,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17661,7 +17667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17738,7 +17744,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17815,7 +17821,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17892,7 +17898,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17969,7 +17975,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -18046,7 +18052,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -18123,7 +18129,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -18200,7 +18206,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -18277,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -18354,7 +18360,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -18431,7 +18437,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18508,7 +18514,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18585,7 +18591,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18662,7 +18668,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18739,7 +18745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18816,7 +18822,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18893,7 +18899,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18970,7 +18976,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -19047,7 +19053,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -19124,7 +19130,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -19201,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -19278,7 +19284,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -19355,7 +19361,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -19432,7 +19438,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -19509,7 +19515,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19586,12 +19592,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>51</v>
+        <v>588</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>26</v>
@@ -19661,7 +19667,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="224" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19738,7 +19744,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19815,7 +19821,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19892,7 +19898,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19969,7 +19975,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -20046,7 +20052,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -20123,7 +20129,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -20200,7 +20206,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -20277,7 +20283,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="232" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -20354,7 +20360,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -20431,7 +20437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -20508,7 +20514,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20585,7 +20591,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20662,7 +20668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20739,7 +20745,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20806,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20883,7 +20889,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20960,7 +20966,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -21037,7 +21043,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -21114,7 +21120,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -21191,7 +21197,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -21268,7 +21274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -21345,7 +21351,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -21422,7 +21428,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -21499,7 +21505,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -21566,7 +21572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21643,7 +21649,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21720,7 +21726,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21797,7 +21803,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21874,7 +21880,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21951,7 +21957,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -22028,7 +22034,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -22105,7 +22111,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -22180,7 +22186,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -22257,7 +22263,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -22334,7 +22340,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -22411,7 +22417,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -22488,7 +22494,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -22565,7 +22571,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22642,7 +22648,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22709,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22784,7 +22790,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22861,7 +22867,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22936,7 +22942,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -23013,7 +23019,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -23090,7 +23096,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -23167,7 +23173,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -23242,7 +23248,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -23319,7 +23325,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -23396,7 +23402,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -23473,7 +23479,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -23550,7 +23556,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="275" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -23627,7 +23633,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="276" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23704,7 +23710,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="277" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23779,7 +23785,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="278" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23856,7 +23862,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="279" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23933,7 +23939,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="280" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -24010,7 +24016,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="281" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -24087,7 +24093,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="282" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -24164,7 +24170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -24241,7 +24247,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="284" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -24318,7 +24324,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -24385,7 +24391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -24462,7 +24468,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="287" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -24539,7 +24545,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="288" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -24616,7 +24622,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -24693,7 +24699,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -24770,7 +24776,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -24847,7 +24853,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -24924,7 +24930,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -25001,7 +25007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -25076,7 +25082,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -25153,7 +25159,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -25220,7 +25226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -25297,7 +25303,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -25374,7 +25380,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -25451,7 +25457,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -25528,7 +25534,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -25605,7 +25611,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -25682,7 +25688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -25757,7 +25763,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -25834,7 +25840,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -25911,7 +25917,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -25978,7 +25984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -26055,7 +26061,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -26130,7 +26136,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -26205,7 +26211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -26282,7 +26288,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -26359,7 +26365,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -26436,7 +26442,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -26513,7 +26519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -26590,7 +26596,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -26667,7 +26673,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -26744,7 +26750,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -26821,7 +26827,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -26898,7 +26904,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="319" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -26975,7 +26981,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="320" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -27042,7 +27048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -27119,7 +27125,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="322" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -27196,7 +27202,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -27271,7 +27277,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="324" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -27348,7 +27354,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="325" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -27423,7 +27429,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -27490,7 +27496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -27557,7 +27563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -27634,7 +27640,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -27711,7 +27717,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -27788,7 +27794,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -27865,7 +27871,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -27940,7 +27946,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -28017,7 +28023,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -28094,7 +28100,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -28169,7 +28175,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -28246,7 +28252,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="337" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -28323,7 +28329,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="338" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -28400,7 +28406,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="339" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -28477,7 +28483,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="340" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -28554,7 +28560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="341" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -28631,7 +28637,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -28708,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -28785,7 +28791,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -28862,7 +28868,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="345" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -28939,7 +28945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="346" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -29016,7 +29022,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="347" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -29093,7 +29099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -29170,7 +29176,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="349" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -29247,7 +29253,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="350" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -29324,7 +29330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -29399,7 +29405,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="352" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -29476,7 +29482,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -29553,7 +29559,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="354" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -29630,7 +29636,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="355" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -29707,7 +29713,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -29774,7 +29780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -29851,7 +29857,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="358" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -29926,7 +29932,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -30003,7 +30009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -30080,7 +30086,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="361" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -30155,7 +30161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -30232,7 +30238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="363" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -30309,7 +30315,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="364" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -30386,7 +30392,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="365" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -30463,7 +30469,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -30540,7 +30546,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -30617,7 +30623,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -30692,7 +30698,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -30759,7 +30765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -30836,7 +30842,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -30911,7 +30917,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -30988,7 +30994,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -31065,7 +31071,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -31140,7 +31146,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -31217,7 +31223,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -31292,7 +31298,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -31367,7 +31373,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -31444,7 +31450,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -31521,7 +31527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -31588,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -31665,7 +31671,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -31742,7 +31748,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -31819,7 +31825,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -31896,7 +31902,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -31973,7 +31979,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="386" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -32040,7 +32046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -32115,7 +32121,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -32190,7 +32196,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -32267,7 +32273,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="390" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -32334,7 +32340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -32411,7 +32417,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="392" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -32488,7 +32494,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="393" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -32565,7 +32571,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="394" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -32642,7 +32648,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="395" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -32717,7 +32723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -32784,7 +32790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -32861,7 +32867,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="398" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -32938,7 +32944,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="399" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -33015,7 +33021,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="400" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -33092,7 +33098,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -33169,7 +33175,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="402" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -33246,7 +33252,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="403" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -33323,7 +33329,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="404" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -33400,7 +33406,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="405" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -33477,7 +33483,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="406" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -33554,7 +33560,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="407" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -33629,7 +33635,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="408" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -33706,7 +33712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -33773,7 +33779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -33850,7 +33856,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="411" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -33927,7 +33933,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="412" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -33994,7 +34000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -34071,7 +34077,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="414" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -34148,7 +34154,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="415" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -34223,7 +34229,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="416" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -34298,7 +34304,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="417" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -34365,7 +34371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -34442,7 +34448,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="419" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -34519,7 +34525,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="420" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -34596,7 +34602,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="421" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -34671,7 +34677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -34748,7 +34754,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -34823,7 +34829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -34890,7 +34896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -34967,7 +34973,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="426" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -35034,7 +35040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -35109,7 +35115,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -35186,7 +35192,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="429" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -35261,7 +35267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -35328,7 +35334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -35405,7 +35411,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="432" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -35482,7 +35488,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="433" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -35557,7 +35563,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="434" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -35634,7 +35640,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="435" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -35709,7 +35715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -35786,7 +35792,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="437" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -35863,7 +35869,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="438" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -35930,7 +35936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -36007,7 +36013,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="440" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -36084,7 +36090,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="441" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -36161,7 +36167,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="442" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -36238,7 +36244,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="443" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -36313,7 +36319,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="444" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -36388,7 +36394,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="445" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -36463,7 +36469,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="446" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -36530,7 +36536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -36605,7 +36611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -36680,7 +36686,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="449" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -36747,7 +36753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -36814,7 +36820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -36891,7 +36897,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="452" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -36968,7 +36974,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="453" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -37035,7 +37041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -37102,7 +37108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -37177,7 +37183,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="456" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -37254,7 +37260,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="457" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -37331,7 +37337,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="458" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -37408,7 +37414,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="459" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -37483,7 +37489,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="460" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -37560,7 +37566,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="461" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -37637,7 +37643,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="462" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -37712,7 +37718,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="463" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -37779,7 +37785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -37856,7 +37862,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -37923,7 +37929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -37998,7 +38004,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -38073,7 +38079,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -38150,7 +38156,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -38225,7 +38231,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -38300,7 +38306,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -38367,7 +38373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -38444,7 +38450,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -38521,7 +38527,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -38598,7 +38604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -38665,7 +38671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -38742,7 +38748,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -38819,7 +38825,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -38896,7 +38902,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -38971,7 +38977,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -39048,7 +39054,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -39123,7 +39129,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -39190,7 +39196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -39257,7 +39263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -39334,7 +39340,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -39409,7 +39415,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -39486,7 +39492,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -39561,7 +39567,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -39638,7 +39644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -39705,7 +39711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -39780,7 +39786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -39847,7 +39853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -39914,7 +39920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -39981,7 +39987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -40048,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -40115,7 +40121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -40190,7 +40196,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="497" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -40265,7 +40271,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -40340,7 +40346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -40407,7 +40413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -40474,7 +40480,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/19/spain_shooting.xlsx
+++ b/data/league_data/spain/19/spain_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280016B5-AE88-A84A-A4DC-CAD6A3A23B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD9035A-E2B2-7440-AF8A-FEDCD895D69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="592">
   <si>
     <t>Rk</t>
   </si>
@@ -1099,9 +1099,6 @@
     <t>Rubén Pardo</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Gonzalo Melero</t>
   </si>
   <si>
@@ -1790,6 +1787,15 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2656,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11410,7 +11416,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>26</v>
@@ -19597,7 +19603,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>26</v>
@@ -22345,7 +22351,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>323</v>
+        <v>591</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>26</v>
@@ -23407,7 +23413,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>359</v>
+        <v>590</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>76</v>
@@ -23484,7 +23490,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>26</v>
@@ -23561,7 +23567,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>189</v>
@@ -23638,7 +23644,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>26</v>
@@ -23715,7 +23721,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>26</v>
@@ -23790,7 +23796,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>189</v>
@@ -23867,7 +23873,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>26</v>
@@ -23944,7 +23950,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>26</v>
@@ -24021,7 +24027,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>38</v>
@@ -24098,7 +24104,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>134</v>
@@ -24175,7 +24181,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>26</v>
@@ -24252,7 +24258,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>26</v>
@@ -24329,7 +24335,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>26</v>
@@ -24396,7 +24402,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>26</v>
@@ -24473,7 +24479,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>26</v>
@@ -24550,7 +24556,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>178</v>
@@ -24627,10 +24633,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>40</v>
@@ -24704,7 +24710,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>76</v>
@@ -24781,7 +24787,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>26</v>
@@ -24858,7 +24864,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>26</v>
@@ -24935,7 +24941,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>26</v>
@@ -25012,7 +25018,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>45</v>
@@ -25087,7 +25093,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>26</v>
@@ -25164,7 +25170,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>26</v>
@@ -25231,7 +25237,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>26</v>
@@ -25308,7 +25314,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>295</v>
@@ -25385,7 +25391,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>26</v>
@@ -25462,7 +25468,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>26</v>
@@ -25539,7 +25545,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>26</v>
@@ -25616,7 +25622,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>45</v>
@@ -25693,7 +25699,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>26</v>
@@ -25768,7 +25774,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>26</v>
@@ -25845,7 +25851,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>111</v>
@@ -25922,7 +25928,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>43</v>
@@ -25989,7 +25995,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>26</v>
@@ -26066,7 +26072,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>383</v>
+        <v>589</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>26</v>
@@ -26141,7 +26147,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>108</v>
@@ -26216,10 +26222,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>48</v>
@@ -26293,7 +26299,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>26</v>
@@ -26370,7 +26376,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>26</v>
@@ -26447,7 +26453,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>111</v>
@@ -26524,10 +26530,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>35</v>
@@ -26601,7 +26607,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>26</v>
@@ -26678,7 +26684,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>26</v>
@@ -26755,7 +26761,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>38</v>
@@ -26832,7 +26838,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>198</v>
@@ -26909,7 +26915,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>26</v>
@@ -26986,7 +26992,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>26</v>
@@ -27053,7 +27059,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>26</v>
@@ -27130,7 +27136,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>111</v>
@@ -27207,7 +27213,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>26</v>
@@ -27282,7 +27288,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>26</v>
@@ -27359,7 +27365,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>26</v>
@@ -27434,10 +27440,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>27</v>
@@ -27501,7 +27507,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>38</v>
@@ -27568,7 +27574,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>329</v>
@@ -27645,7 +27651,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>26</v>
@@ -27722,7 +27728,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>76</v>
@@ -27876,7 +27882,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>189</v>
@@ -27951,7 +27957,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>196</v>
@@ -28028,7 +28034,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>26</v>
@@ -28105,7 +28111,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>26</v>
@@ -28180,7 +28186,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>26</v>
@@ -28257,10 +28263,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>90</v>
@@ -28334,10 +28340,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>46</v>
@@ -28411,10 +28417,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>48</v>
@@ -28488,7 +28494,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>26</v>
@@ -28565,7 +28571,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>181</v>
@@ -28642,7 +28648,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>26</v>
@@ -28719,7 +28725,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>223</v>
@@ -28796,7 +28802,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>45</v>
@@ -28873,7 +28879,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>26</v>
@@ -28950,7 +28956,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>26</v>
@@ -29027,7 +29033,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>26</v>
@@ -29104,7 +29110,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>108</v>
@@ -29181,10 +29187,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>48</v>
@@ -29258,7 +29264,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>73</v>
@@ -29335,7 +29341,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>301</v>
@@ -29410,7 +29416,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>235</v>
@@ -29487,7 +29493,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>108</v>
@@ -29564,7 +29570,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>154</v>
@@ -29641,7 +29647,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>295</v>
@@ -29718,7 +29724,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>356</v>
@@ -29785,10 +29791,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>141</v>
@@ -29862,7 +29868,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>38</v>
@@ -29937,7 +29943,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>267</v>
@@ -30014,7 +30020,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>26</v>
@@ -30091,7 +30097,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>26</v>
@@ -30166,7 +30172,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>26</v>
@@ -30243,7 +30249,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>154</v>
@@ -30320,7 +30326,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>26</v>
@@ -30397,7 +30403,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>76</v>
@@ -30474,7 +30480,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>26</v>
@@ -30551,10 +30557,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>46</v>
@@ -30628,7 +30634,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>26</v>
@@ -30703,7 +30709,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>26</v>
@@ -30770,7 +30776,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>76</v>
@@ -30847,7 +30853,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>26</v>
@@ -30922,7 +30928,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>26</v>
@@ -30999,10 +31005,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>46</v>
@@ -31076,7 +31082,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>108</v>
@@ -31151,7 +31157,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>26</v>
@@ -31228,7 +31234,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>26</v>
@@ -31303,7 +31309,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>178</v>
@@ -31455,7 +31461,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>26</v>
@@ -31532,7 +31538,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>26</v>
@@ -31599,7 +31605,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>267</v>
@@ -31676,7 +31682,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>38</v>
@@ -31753,10 +31759,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>141</v>
@@ -31830,7 +31836,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>73</v>
@@ -31907,10 +31913,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>46</v>
@@ -31984,7 +31990,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>26</v>
@@ -32051,7 +32057,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>45</v>
@@ -32126,7 +32132,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>26</v>
@@ -32201,7 +32207,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>26</v>
@@ -32278,7 +32284,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>108</v>
@@ -32345,10 +32351,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>35</v>
@@ -32422,7 +32428,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>178</v>
@@ -32499,10 +32505,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>40</v>
@@ -32576,7 +32582,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>26</v>
@@ -32653,7 +32659,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>26</v>
@@ -32728,7 +32734,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>26</v>
@@ -32795,7 +32801,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>26</v>
@@ -32872,7 +32878,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>108</v>
@@ -32949,7 +32955,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>145</v>
@@ -33026,7 +33032,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>189</v>
@@ -33103,7 +33109,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>26</v>
@@ -33180,7 +33186,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>216</v>
@@ -33257,7 +33263,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>189</v>
@@ -33334,10 +33340,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>35</v>
@@ -33411,7 +33417,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>26</v>
@@ -33488,7 +33494,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>26</v>
@@ -33565,7 +33571,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>26</v>
@@ -33640,7 +33646,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>38</v>
@@ -33717,7 +33723,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>45</v>
@@ -33784,7 +33790,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>45</v>
@@ -33861,10 +33867,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>46</v>
@@ -33938,7 +33944,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>26</v>
@@ -34005,7 +34011,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>76</v>
@@ -34082,7 +34088,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>26</v>
@@ -34159,7 +34165,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>26</v>
@@ -34234,7 +34240,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>26</v>
@@ -34309,7 +34315,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>26</v>
@@ -34376,7 +34382,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>26</v>
@@ -34453,10 +34459,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>90</v>
@@ -34530,7 +34536,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>26</v>
@@ -34682,10 +34688,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>48</v>
@@ -34759,7 +34765,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>181</v>
@@ -34834,10 +34840,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>27</v>
@@ -34901,7 +34907,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>216</v>
@@ -34978,7 +34984,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>26</v>
@@ -35045,7 +35051,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>196</v>
@@ -35120,7 +35126,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>26</v>
@@ -35197,7 +35203,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>154</v>
@@ -35272,7 +35278,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>26</v>
@@ -35339,7 +35345,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>145</v>
@@ -35416,7 +35422,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>26</v>
@@ -35493,7 +35499,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>26</v>
@@ -35568,7 +35574,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>26</v>
@@ -35645,7 +35651,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>145</v>
@@ -35720,10 +35726,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>40</v>
@@ -35797,7 +35803,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>76</v>
@@ -35874,7 +35880,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>26</v>
@@ -35941,7 +35947,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>26</v>
@@ -36018,7 +36024,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>26</v>
@@ -36095,7 +36101,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -36172,7 +36178,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>38</v>
@@ -36249,7 +36255,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>26</v>
@@ -36324,7 +36330,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>45</v>
@@ -36399,7 +36405,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>26</v>
@@ -36474,7 +36480,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>329</v>
@@ -36541,7 +36547,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>26</v>
@@ -36616,7 +36622,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>26</v>
@@ -36691,7 +36697,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -36758,7 +36764,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>26</v>
@@ -36825,7 +36831,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>235</v>
@@ -36902,7 +36908,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>26</v>
@@ -36979,7 +36985,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>267</v>
@@ -37046,7 +37052,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>26</v>
@@ -37113,7 +37119,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -37188,7 +37194,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>196</v>
@@ -37265,7 +37271,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>235</v>
@@ -37342,7 +37348,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>189</v>
@@ -37419,7 +37425,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>76</v>
@@ -37494,7 +37500,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>198</v>
@@ -37571,7 +37577,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>58</v>
@@ -37648,7 +37654,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>38</v>
@@ -37723,7 +37729,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>26</v>
@@ -37790,7 +37796,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>108</v>
@@ -37867,7 +37873,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>26</v>
@@ -37934,7 +37940,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>108</v>
@@ -38009,7 +38015,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>189</v>
@@ -38084,7 +38090,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -38161,7 +38167,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -38236,7 +38242,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>26</v>
@@ -38311,7 +38317,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>26</v>
@@ -38378,7 +38384,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>26</v>
@@ -38455,7 +38461,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -38532,7 +38538,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>26</v>
@@ -38609,7 +38615,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>108</v>
@@ -38676,7 +38682,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>235</v>
@@ -38753,7 +38759,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>26</v>
@@ -38830,10 +38836,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>48</v>
@@ -38907,7 +38913,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -38982,7 +38988,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>111</v>
@@ -39059,7 +39065,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>26</v>
@@ -39134,7 +39140,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>26</v>
@@ -39201,7 +39207,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>45</v>
@@ -39268,7 +39274,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>26</v>
@@ -39345,7 +39351,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>26</v>
@@ -39420,7 +39426,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>134</v>
@@ -39497,7 +39503,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>26</v>
@@ -39572,7 +39578,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>134</v>
@@ -39649,7 +39655,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>26</v>
@@ -39716,7 +39722,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>26</v>
@@ -39791,7 +39797,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>26</v>
@@ -39858,7 +39864,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39925,7 +39931,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -39992,7 +39998,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>108</v>
@@ -40059,7 +40065,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40126,7 +40132,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -40201,7 +40207,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -40276,7 +40282,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>170</v>
@@ -40351,7 +40357,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -40418,7 +40424,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>134</v>

--- a/data/league_data/spain/19/spain_shooting.xlsx
+++ b/data/league_data/spain/19/spain_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD9035A-E2B2-7440-AF8A-FEDCD895D69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2022E824-2044-EB4B-B2CB-A4BE204BCF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1609,9 +1609,6 @@
     <t>Cheick Doukouré</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Ignasi Miquel</t>
   </si>
   <si>
@@ -1796,6 +1793,9 @@
   </si>
   <si>
     <t>Juanfran Moreno</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11416,7 +11416,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>26</v>
@@ -19603,7 +19603,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>26</v>
@@ -22351,7 +22351,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>26</v>
@@ -23413,7 +23413,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>76</v>
@@ -26072,7 +26072,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>26</v>
@@ -35803,7 +35803,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>76</v>
@@ -35880,7 +35880,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>26</v>
@@ -35947,7 +35947,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>26</v>
@@ -36024,7 +36024,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>26</v>
@@ -36101,7 +36101,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>26</v>
@@ -36178,7 +36178,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>38</v>
@@ -36255,7 +36255,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>26</v>
@@ -36330,7 +36330,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>45</v>
@@ -36405,7 +36405,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>26</v>
@@ -36480,7 +36480,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>329</v>
@@ -36547,7 +36547,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>26</v>
@@ -36622,7 +36622,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>26</v>
@@ -36697,7 +36697,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -36764,7 +36764,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>26</v>
@@ -36831,7 +36831,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>235</v>
@@ -36908,7 +36908,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>26</v>
@@ -36985,7 +36985,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>267</v>
@@ -37052,7 +37052,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>26</v>
@@ -37119,7 +37119,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -37194,7 +37194,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>196</v>
@@ -37271,7 +37271,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>235</v>
@@ -37348,7 +37348,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>189</v>
@@ -37425,7 +37425,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>76</v>
@@ -37500,7 +37500,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>198</v>
@@ -37577,7 +37577,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>58</v>
@@ -37654,7 +37654,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>38</v>
@@ -37729,7 +37729,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>26</v>
@@ -37796,7 +37796,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>108</v>
@@ -37873,7 +37873,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>26</v>
@@ -37940,7 +37940,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>108</v>
@@ -38090,7 +38090,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>26</v>
@@ -38167,7 +38167,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>26</v>
@@ -38317,7 +38317,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>26</v>
@@ -38384,7 +38384,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>26</v>
@@ -38461,7 +38461,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>26</v>
@@ -38538,7 +38538,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>26</v>
@@ -38615,7 +38615,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>108</v>
@@ -38682,7 +38682,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>235</v>
@@ -38759,7 +38759,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>26</v>
@@ -38836,7 +38836,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>485</v>
@@ -38913,7 +38913,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>26</v>
@@ -39065,7 +39065,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>26</v>
@@ -39140,7 +39140,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>26</v>
@@ -39207,7 +39207,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>45</v>
@@ -39274,7 +39274,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>26</v>
@@ -39351,7 +39351,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>26</v>
@@ -39426,7 +39426,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>134</v>
@@ -39503,7 +39503,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>26</v>
@@ -39578,7 +39578,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>134</v>
@@ -39655,7 +39655,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>26</v>
@@ -39722,7 +39722,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>26</v>
@@ -39797,7 +39797,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>26</v>
@@ -39864,7 +39864,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>26</v>
@@ -39931,7 +39931,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>26</v>
@@ -39998,7 +39998,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>108</v>
@@ -40065,7 +40065,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>26</v>
@@ -40132,7 +40132,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>26</v>
@@ -40207,7 +40207,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>26</v>
@@ -40282,7 +40282,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>170</v>
@@ -40357,7 +40357,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>26</v>
@@ -40424,7 +40424,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>134</v>
